--- a/ExcelDBviaEntityFramework/Excel files/Signups.xlsx
+++ b/ExcelDBviaEntityFramework/Excel files/Signups.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enijh\source\repos\ExcelDBviaEntityFramework\ExcelDBviaEntityFramework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emiel.Nijhuis\source\repos\misc\ExcelDBviaEntityFramework\ExcelDBviaEntityFramework\Excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998BB132-40DA-42A8-93E0-47FDB7732115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5D04F0-DA3E-442E-AC20-E96772BA37D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Brice</t>
   </si>
   <si>
-    <t>555-5551</t>
-  </si>
-  <si>
     <t>Ryan</t>
   </si>
   <si>
@@ -61,6 +58,21 @@
   </si>
   <si>
     <t>555-5553</t>
+  </si>
+  <si>
+    <t>123-456-7890</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>er5t6y93</t>
+  </si>
+  <si>
+    <t>3r343ytr</t>
+  </si>
+  <si>
+    <t>9kce6j8w</t>
   </si>
 </sst>
 </file>
@@ -258,7 +270,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -535,62 +547,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35" outlineLevel="0" r="1">
+    <row r="1" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35" outlineLevel="0" r="2">
+    <row r="2" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>123-456-7890</t>
-        </is>
-      </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5">
         <v>4</v>
       </c>
     </row>
-    <row spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35" outlineLevel="0" r="3">
+    <row r="3" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35" outlineLevel="0" r="4">
-      <c r="A4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="D4" s="9">
         <v>2</v>
       </c>
     </row>

--- a/ExcelDBviaEntityFramework/Excel files/Signups.xlsx
+++ b/ExcelDBviaEntityFramework/Excel files/Signups.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emiel.Nijhuis\source\repos\misc\ExcelDBviaEntityFramework\ExcelDBviaEntityFramework\Excel files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enijh\source\repos\ExcelDBviaEntityFramework\ExcelDBviaEntityFramework\Excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5D04F0-DA3E-442E-AC20-E96772BA37D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE845A2-782E-4A95-A5C4-BD5828DF9B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -63,9 +63,6 @@
     <t>123-456-7890</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>er5t6y93</t>
   </si>
   <si>
@@ -73,6 +70,12 @@
   </si>
   <si>
     <t>9kce6j8w</t>
+  </si>
+  <si>
+    <t>Deleted_ý</t>
+  </si>
+  <si>
+    <t>Id_ý</t>
   </si>
 </sst>
 </file>
@@ -270,7 +273,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -549,73 +552,85 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="4" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9">
+      <c r="E4" s="9">
         <v>2</v>
       </c>
     </row>

--- a/ExcelDBviaEntityFramework/Excel files/Signups.xlsx
+++ b/ExcelDBviaEntityFramework/Excel files/Signups.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enijh\source\repos\ExcelDBviaEntityFramework\ExcelDBviaEntityFramework\Excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE845A2-782E-4A95-A5C4-BD5828DF9B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171D2BD4-D7D8-4E95-8FE2-038F0E52F239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -82,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,19 +95,14 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Segoe UI"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,24 +111,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDFDFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFEF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6F6F6"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -138,139 +124,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE7E7E7"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE7E7E7"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE7E7E7"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE7E7E7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE7E7E7"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFE7E7E7"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE7E7E7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE7E7E7"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE7E7E7"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE7E7E7"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE7E7E7"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFE7E7E7"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDFDFDF"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFE7E7E7"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDFDFDF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE7E7E7"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE7E7E7"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE7E7E7"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFDFDFDF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE7E7E7"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE7E7E7"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDFDFDF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -554,19 +414,20 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -576,65 +437,66 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="b">
+      <c r="B2" t="b">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="b">
+      <c r="B3" t="b">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="b">
+      <c r="B4" t="b">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/ExcelDBviaEntityFramework/Excel files/Signups.xlsx
+++ b/ExcelDBviaEntityFramework/Excel files/Signups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enijh\source\repos\ExcelDBviaEntityFramework\ExcelDBviaEntityFramework\Excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171D2BD4-D7D8-4E95-8FE2-038F0E52F239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20321A7D-9E05-4A7E-A77C-4C2798D484E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>555-5553</t>
   </si>
   <si>
-    <t>123-456-7890</t>
-  </si>
-  <si>
     <t>er5t6y93</t>
   </si>
   <si>
@@ -79,13 +76,16 @@
   </si>
   <si>
     <t>Id_ý</t>
+  </si>
+  <si>
+    <t>555-5551</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +97,12 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -414,14 +420,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
@@ -429,10 +435,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -446,7 +452,7 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -455,7 +461,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -463,7 +469,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
@@ -480,7 +486,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -497,6 +503,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/ExcelDBviaEntityFramework/Excel files/Signups.xlsx
+++ b/ExcelDBviaEntityFramework/Excel files/Signups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enijh\source\repos\ExcelDBviaEntityFramework\ExcelDBviaEntityFramework\Excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20321A7D-9E05-4A7E-A77C-4C2798D484E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6880D6C5-0B04-4C73-903C-8C0D0057D72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,14 +420,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>

--- a/ExcelDBviaEntityFramework/Excel files/Signups.xlsx
+++ b/ExcelDBviaEntityFramework/Excel files/Signups.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enijh\source\repos\ExcelDBviaEntityFramework\ExcelDBviaEntityFramework\Excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6880D6C5-0B04-4C73-903C-8C0D0057D72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C3D7DB-C64B-4A1C-B9FB-6A89DB80E3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="1932" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>555-5551</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -134,9 +140,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -418,91 +426,104 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
